--- a/mapa_estoque/mapa_orientacao.xlsx
+++ b/mapa_estoque/mapa_orientacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maxifarmabr-my.sharepoint.com/personal/controle_estoque_grupomaxifarma_com_br/Documents/Documentos/estoque.renan/projetos/projeto_curva_abc/mapa_estoque/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maxifarmabr-my.sharepoint.com/personal/controle_estoque_grupomaxifarma_com_br/Documents/Documentos/estoque.renan/projetos/Projeto_Curva_ABC/mapa_estoque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_81554C0BD75134EE6C78C15362DD938D9130660F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_81554C0BD75134EE6C78C15362DD938D9130660F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45ABDC40-BDAB-4F9E-8F4D-D20FE65F8420}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="499">
   <si>
     <t>10 e 12 Par</t>
   </si>
@@ -1509,6 +1509,15 @@
   </si>
   <si>
     <t>012-066-01-02</t>
+  </si>
+  <si>
+    <t>018-040-00-01</t>
+  </si>
+  <si>
+    <t>018-040-00-02</t>
+  </si>
+  <si>
+    <t>018-040-01-01</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2094,9 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3441,8 +3452,8 @@
         <v>442</v>
       </c>
       <c r="M40" s="4"/>
-      <c r="N40" s="24" t="s">
-        <v>154</v>
+      <c r="N40" s="16" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,8 +3486,8 @@
         <v>450</v>
       </c>
       <c r="M41" s="4"/>
-      <c r="N41" s="24" t="s">
-        <v>154</v>
+      <c r="N41" s="16" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18954,7 +18965,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20719,8 +20730,8 @@
       <c r="M40" s="4">
         <v>0</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>14</v>
+      <c r="N40" s="16" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20763,8 +20774,8 @@
       <c r="M41" s="4">
         <v>0</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>14</v>
+      <c r="N41" s="16" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/mapa_estoque/mapa_orientacao.xlsx
+++ b/mapa_estoque/mapa_orientacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maxifarmabr-my.sharepoint.com/personal/controle_estoque_grupomaxifarma_com_br/Documents/Documentos/estoque.renan/projetos/Projeto_Curva_ABC/mapa_estoque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_81554C0BD75134EE6C78C15362DD938D9130660F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E534DA9D-9D7C-4AD4-8288-2D38A837E790}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_81554C0BD75134EE6C78C15362DD938D9130660F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF54DB18-9F4A-4C00-9FD3-58A185C4BDD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pallet chao" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="499">
   <si>
     <t>10 e 12 Par</t>
   </si>
@@ -65,9 +65,6 @@
     <t>18 Par</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>017-002-01-01</t>
   </si>
   <si>
@@ -1518,6 +1515,9 @@
   </si>
   <si>
     <t>018-040-01-01</t>
+  </si>
+  <si>
+    <t>Rua 1 e 12</t>
   </si>
 </sst>
 </file>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="A1:N998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,27 +2159,27 @@
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
       <c r="F2" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,1458 +2189,1458 @@
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>169</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>185</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>203</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>211</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>212</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>226</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>233</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>260</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>268</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>269</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>278</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>286</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>287</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>296</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>304</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>305</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>313</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>314</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>332</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>340</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>341</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>350</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>358</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>359</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>367</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>373</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>374</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>383</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>384</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>385</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>386</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>393</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>394</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>395</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>402</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>403</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>404</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>410</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>411</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>412</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>413</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>419</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>420</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>422</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>428</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>429</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>430</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>431</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>438</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>439</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>440</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F41" s="30" t="s">
         <v>445</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>447</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>448</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F42" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>454</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="I42" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>456</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F43" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>461</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="I43" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>463</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F44" s="30" t="s">
         <v>467</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>468</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F45" s="30" t="s">
         <v>471</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>472</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
@@ -3654,15 +3654,15 @@
     </row>
     <row r="47" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="48" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="51" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="52" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="55" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="56" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="59" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="60" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="63" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="64" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="65" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="66" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="67" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="68" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="70" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="71" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -18932,8 +18932,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18947,7 +18947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>498</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -18987,3172 +18987,1520 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="L38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="M39" s="4"/>
+      <c r="N39" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6" t="s">
+      <c r="L40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>14</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-      <c r="N48" s="4">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>0</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4">
-        <v>0</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0</v>
-      </c>
-      <c r="N52" s="4">
-        <v>0</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
-      <c r="N54" s="4">
-        <v>0</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
     </row>
     <row r="55" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0</v>
-      </c>
-      <c r="N55" s="4">
-        <v>0</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
     <row r="56" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0</v>
-      </c>
-      <c r="N56" s="4">
-        <v>0</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4">
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
-      <c r="N58" s="4">
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
     </row>
     <row r="59" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-      <c r="L59" s="4">
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="4">
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
     </row>
     <row r="60" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <v>0</v>
-      </c>
-      <c r="N60" s="4">
-        <v>0</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
     </row>
     <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <v>0</v>
-      </c>
-      <c r="N61" s="4">
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-      <c r="L62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
-      <c r="N62" s="4">
-        <v>0</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>0</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
     </row>
     <row r="64" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-      <c r="L64" s="4">
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
-      <c r="N64" s="4">
-        <v>0</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
     </row>
     <row r="65" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
     </row>
     <row r="66" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
     </row>
     <row r="67" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
     </row>
     <row r="68" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="N68" s="4">
-        <v>0</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
     </row>
     <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
-      <c r="N69" s="4">
-        <v>0</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0</v>
-      </c>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
-      <c r="N70" s="4">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0</v>
-      </c>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
-      <c r="N71" s="4">
-        <v>0</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4">
-        <v>0</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
     </row>
     <row r="73" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="4">
-        <v>0</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
